--- a/config_10.12/activity_ty_task_config.xlsx
+++ b/config_10.12/activity_ty_task_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="637">
   <si>
     <t>index|索引</t>
   </si>
@@ -3336,13 +3336,1224 @@
   </si>
   <si>
     <t>重阳福利</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金10万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金30万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金50万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金80万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金100万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金200万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金350万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金900万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金1800万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金3000万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金5000万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金9000万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金1.5亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金2.5亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金4.5亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金7.5亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金10亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金15亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金30亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金50亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金100亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金300亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金600亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金1000亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金1500亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金2000亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金1万</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意游戏累计赢金5万</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50000000000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000000000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值8元</t>
+  </si>
+  <si>
+    <t>累计充值40元</t>
+  </si>
+  <si>
+    <t>累计充值100元</t>
+  </si>
+  <si>
+    <t>累计充值200元</t>
+  </si>
+  <si>
+    <t>累计充值400元</t>
+  </si>
+  <si>
+    <t>累计充值900元</t>
+  </si>
+  <si>
+    <t>累计充值1500元</t>
+  </si>
+  <si>
+    <t>累计充值2000元</t>
+  </si>
+  <si>
+    <t>累计充值2800元</t>
+  </si>
+  <si>
+    <t>累计充值4000元</t>
+  </si>
+  <si>
+    <t>累计充值6500元</t>
+  </si>
+  <si>
+    <t>累计充值8000元</t>
+  </si>
+  <si>
+    <t>累计充值12000元</t>
+  </si>
+  <si>
+    <t>累计充值16000元</t>
+  </si>
+  <si>
+    <t>累计充值20000元</t>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>800</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>40,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>400,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>600,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>400,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>400,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>800,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>87,188,189,190,191,192,193,194,195,196,197,198,199,200,201,202,203,204,205,206,207,208,209,210,211,212,213,214</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>189,190,191,192,193,194,195,196,197,198,199,200,201,202,203,204,205,206,207,208,209,210,211,212,213,214</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15,216,217,218,219,220,221,222,223,224,225,226,227,228,229</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂返利（新用户）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂返利</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1,22,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,22,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂返利</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_fkfl_not_new</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>fkfl_bg_1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_fkfl_new</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3415,6 +4626,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -3538,7 +4757,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3651,6 +4870,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3928,10 +5177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4295,6 +5544,40 @@
         <v>19</v>
       </c>
     </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>636</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>635</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>633</v>
+      </c>
+      <c r="E21" s="65" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>634</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>635</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>633</v>
+      </c>
+      <c r="E22" s="65" t="s">
+        <v>631</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4304,10 +5587,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4729,6 +6012,66 @@
         <v>517</v>
       </c>
     </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>629</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="44" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>630</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="44" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>630</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="44" t="s">
+        <v>628</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4738,18 +6081,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V187"/>
+  <dimension ref="A1:V230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A184" sqref="A184:A187"/>
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C215" sqref="A215:C215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.375" style="60" customWidth="1"/>
     <col min="4" max="4" width="42.125" style="3" customWidth="1"/>
     <col min="5" max="6" width="11.375" style="3" customWidth="1"/>
     <col min="7" max="7" width="61.75" style="3" customWidth="1"/>
@@ -4776,7 +6119,7 @@
       <c r="B1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="57" t="s">
         <v>46</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -5144,7 +6487,7 @@
       <c r="B11" s="6">
         <v>1000628</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="58">
         <v>4</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -5434,7 +6777,7 @@
       <c r="B21" s="6">
         <v>1000638</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="58">
         <v>1</v>
       </c>
       <c r="D21" s="10" t="s">
@@ -5463,7 +6806,7 @@
       <c r="B22" s="6">
         <v>1000640</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="58">
         <v>3</v>
       </c>
       <c r="D22" s="11" t="s">
@@ -5500,7 +6843,7 @@
       <c r="B23" s="6">
         <v>1000641</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="58">
         <v>3</v>
       </c>
       <c r="D23" s="11" t="s">
@@ -5537,7 +6880,7 @@
       <c r="B24" s="6">
         <v>1000642</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="58">
         <v>3</v>
       </c>
       <c r="D24" s="11" t="s">
@@ -5574,7 +6917,7 @@
       <c r="B25" s="6">
         <v>1000643</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="58">
         <v>3</v>
       </c>
       <c r="D25" s="11" t="s">
@@ -5610,7 +6953,7 @@
       <c r="B26" s="6">
         <v>1000644</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="58">
         <v>3</v>
       </c>
       <c r="D26" s="11" t="s">
@@ -5646,7 +6989,7 @@
       <c r="B27" s="6">
         <v>1000645</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="58">
         <v>3</v>
       </c>
       <c r="D27" s="11" t="s">
@@ -5682,7 +7025,7 @@
       <c r="B28" s="6">
         <v>1000646</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="58">
         <v>3</v>
       </c>
       <c r="D28" s="11" t="s">
@@ -5718,7 +7061,7 @@
       <c r="B29" s="6">
         <v>1000647</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="58">
         <v>3</v>
       </c>
       <c r="D29" s="11" t="s">
@@ -5748,7 +7091,7 @@
       <c r="B30" s="6">
         <v>1000648</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="58">
         <v>3</v>
       </c>
       <c r="D30" s="11" t="s">
@@ -5778,7 +7121,7 @@
       <c r="B31" s="13">
         <v>1000689</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="59">
         <v>1</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -5810,7 +7153,7 @@
       <c r="B32" s="13">
         <v>1000690</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="59">
         <v>3</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -5842,7 +7185,7 @@
       <c r="B33" s="13">
         <v>1000691</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="59">
         <v>88</v>
       </c>
       <c r="D33" s="42" t="s">
@@ -5873,7 +7216,7 @@
       <c r="B34" s="13">
         <v>1000692</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="59">
         <v>1</v>
       </c>
       <c r="D34" s="3" t="s">
@@ -5903,7 +7246,7 @@
       <c r="B35" s="13">
         <v>1000693</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="59">
         <v>1</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -5933,7 +7276,7 @@
       <c r="B36" s="13">
         <v>1000694</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="59">
         <v>1</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -5963,7 +7306,7 @@
       <c r="B37" s="13">
         <v>1000695</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="59">
         <v>1</v>
       </c>
       <c r="D37" s="3" t="s">
@@ -5993,7 +7336,7 @@
       <c r="B38" s="13">
         <v>1000696</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="60">
         <v>8</v>
       </c>
       <c r="D38" s="3" t="s">
@@ -6022,7 +7365,7 @@
       <c r="B39" s="13">
         <v>1000697</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="60">
         <v>100000</v>
       </c>
       <c r="D39" s="16" t="s">
@@ -6050,7 +7393,7 @@
       <c r="B40" s="13">
         <v>1000697</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="60">
         <v>300000</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -6078,7 +7421,7 @@
       <c r="B41" s="13">
         <v>1000698</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="60">
         <v>600</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -6106,7 +7449,7 @@
       <c r="B42" s="13">
         <v>1000697</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="60">
         <v>1000000</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -6134,7 +7477,7 @@
       <c r="B43" s="13">
         <v>1000697</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="60">
         <v>3000000</v>
       </c>
       <c r="D43" s="3" t="s">
@@ -6162,7 +7505,7 @@
       <c r="B44" s="13">
         <v>1000698</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="60">
         <v>4800</v>
       </c>
       <c r="D44" s="3" t="s">
@@ -6190,7 +7533,7 @@
       <c r="B45" s="13">
         <v>1000697</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="60">
         <v>10000000</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -6218,7 +7561,7 @@
       <c r="B46" s="13">
         <v>1000697</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="60">
         <v>20000000</v>
       </c>
       <c r="D46" s="3" t="s">
@@ -6246,7 +7589,7 @@
       <c r="B47" s="13">
         <v>1000698</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="60">
         <v>19800</v>
       </c>
       <c r="D47" s="3" t="s">
@@ -6274,7 +7617,7 @@
       <c r="B48" s="13">
         <v>1000697</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="60">
         <v>35000000</v>
       </c>
       <c r="D48" s="3" t="s">
@@ -6302,7 +7645,7 @@
       <c r="B49" s="13">
         <v>1000697</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="60">
         <v>80000000</v>
       </c>
       <c r="D49" s="3" t="s">
@@ -6330,7 +7673,7 @@
       <c r="B50" s="13">
         <v>1000698</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="60">
         <v>88800</v>
       </c>
       <c r="D50" s="3" t="s">
@@ -6358,7 +7701,7 @@
       <c r="B51" s="13">
         <v>1000697</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="60">
         <v>200000000</v>
       </c>
       <c r="D51" s="3" t="s">
@@ -6386,7 +7729,7 @@
       <c r="B52" s="13">
         <v>1000697</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="60">
         <v>800000000</v>
       </c>
       <c r="D52" s="3" t="s">
@@ -6414,7 +7757,7 @@
       <c r="B53" s="13">
         <v>1000698</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="60">
         <v>188800</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -6442,7 +7785,7 @@
       <c r="B54" s="13">
         <v>1000697</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="60">
         <v>2000000000</v>
       </c>
       <c r="D54" s="3" t="s">
@@ -6470,7 +7813,7 @@
       <c r="B55" s="13">
         <v>1000698</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="60">
         <v>588800</v>
       </c>
       <c r="D55" s="3" t="s">
@@ -6498,7 +7841,7 @@
       <c r="B56" s="13">
         <v>1000697</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="60">
         <v>4000000000</v>
       </c>
       <c r="D56" s="3" t="s">
@@ -6526,7 +7869,7 @@
       <c r="B57" s="13">
         <v>1000698</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="60">
         <v>1000000</v>
       </c>
       <c r="D57" s="3" t="s">
@@ -6554,7 +7897,7 @@
       <c r="B58" s="13">
         <v>1000697</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="60">
         <v>8000000000</v>
       </c>
       <c r="D58" s="3" t="s">
@@ -6582,7 +7925,7 @@
       <c r="B59" s="13">
         <v>1000698</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="60">
         <v>1888800</v>
       </c>
       <c r="D59" s="3" t="s">
@@ -6610,7 +7953,7 @@
       <c r="B60" s="13">
         <v>1000697</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="60">
         <v>20000000000</v>
       </c>
       <c r="D60" s="3" t="s">
@@ -6638,7 +7981,7 @@
       <c r="B61" s="13">
         <v>1000703</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="60">
         <v>3000000</v>
       </c>
       <c r="D61" s="3" t="s">
@@ -6666,7 +8009,7 @@
       <c r="B62" s="13">
         <v>1000703</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="60">
         <v>20000000</v>
       </c>
       <c r="D62" s="3" t="s">
@@ -6694,7 +8037,7 @@
       <c r="B63" s="13">
         <v>1000703</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="60">
         <v>50000000</v>
       </c>
       <c r="D63" s="3" t="s">
@@ -6722,7 +8065,7 @@
       <c r="B64" s="49">
         <v>1000705</v>
       </c>
-      <c r="C64" s="49">
+      <c r="C64" s="61">
         <v>1</v>
       </c>
       <c r="D64" s="50" t="s">
@@ -6750,7 +8093,7 @@
       <c r="B65" s="49">
         <v>1000706</v>
       </c>
-      <c r="C65" s="49">
+      <c r="C65" s="61">
         <v>100000</v>
       </c>
       <c r="D65" s="50" t="s">
@@ -6778,7 +8121,7 @@
       <c r="B66" s="49">
         <v>1000706</v>
       </c>
-      <c r="C66" s="49">
+      <c r="C66" s="61">
         <v>1000000</v>
       </c>
       <c r="D66" s="50" t="s">
@@ -6806,7 +8149,7 @@
       <c r="B67" s="49">
         <v>1000707</v>
       </c>
-      <c r="C67" s="49">
+      <c r="C67" s="61">
         <v>10</v>
       </c>
       <c r="D67" s="50" t="s">
@@ -6834,7 +8177,7 @@
       <c r="B68" s="49">
         <v>1000708</v>
       </c>
-      <c r="C68" s="49">
+      <c r="C68" s="61">
         <v>3</v>
       </c>
       <c r="D68" s="50" t="s">
@@ -6862,7 +8205,7 @@
       <c r="B69" s="49">
         <v>1000709</v>
       </c>
-      <c r="C69" s="49">
+      <c r="C69" s="61">
         <v>100</v>
       </c>
       <c r="D69" s="49" t="s">
@@ -6890,7 +8233,7 @@
       <c r="B70" s="49">
         <v>1000710</v>
       </c>
-      <c r="C70" s="49">
+      <c r="C70" s="61">
         <v>100</v>
       </c>
       <c r="D70" s="49" t="s">
@@ -6918,7 +8261,7 @@
       <c r="B71" s="13">
         <v>1000711</v>
       </c>
-      <c r="C71" s="13">
+      <c r="C71" s="62">
         <v>1</v>
       </c>
       <c r="D71" s="3" t="s">
@@ -6946,7 +8289,7 @@
       <c r="B72" s="13">
         <v>1000712</v>
       </c>
-      <c r="C72" s="13">
+      <c r="C72" s="62">
         <v>1</v>
       </c>
       <c r="D72" s="3" t="s">
@@ -6974,7 +8317,7 @@
       <c r="B73" s="49">
         <v>1000713</v>
       </c>
-      <c r="C73" s="49">
+      <c r="C73" s="61">
         <v>2</v>
       </c>
       <c r="D73" s="50" t="s">
@@ -7002,7 +8345,7 @@
       <c r="B74" s="49">
         <v>1000713</v>
       </c>
-      <c r="C74" s="49">
+      <c r="C74" s="61">
         <v>4</v>
       </c>
       <c r="D74" s="50" t="s">
@@ -7030,7 +8373,7 @@
       <c r="B75" s="13">
         <v>1000714</v>
       </c>
-      <c r="C75" s="13">
+      <c r="C75" s="62">
         <v>100</v>
       </c>
       <c r="D75" s="3" t="s">
@@ -7058,7 +8401,7 @@
       <c r="B76" s="13">
         <v>1000715</v>
       </c>
-      <c r="C76" s="13">
+      <c r="C76" s="62">
         <v>100</v>
       </c>
       <c r="D76" s="3" t="s">
@@ -7086,7 +8429,7 @@
       <c r="B77" s="13">
         <v>1000716</v>
       </c>
-      <c r="C77" s="13">
+      <c r="C77" s="62">
         <v>1</v>
       </c>
       <c r="D77" s="3" t="s">
@@ -7114,7 +8457,7 @@
       <c r="B78" s="13">
         <v>1000717</v>
       </c>
-      <c r="C78" s="13">
+      <c r="C78" s="62">
         <v>1</v>
       </c>
       <c r="D78" s="3" t="s">
@@ -7142,7 +8485,7 @@
       <c r="B79" s="13">
         <v>1000718</v>
       </c>
-      <c r="C79" s="13">
+      <c r="C79" s="62">
         <v>1</v>
       </c>
       <c r="D79" s="41" t="s">
@@ -7170,7 +8513,7 @@
       <c r="B80" s="13">
         <v>1000718</v>
       </c>
-      <c r="C80" s="13">
+      <c r="C80" s="62">
         <v>4</v>
       </c>
       <c r="D80" s="41" t="s">
@@ -7198,7 +8541,7 @@
       <c r="B81" s="13">
         <v>1000719</v>
       </c>
-      <c r="C81" s="13">
+      <c r="C81" s="62">
         <v>1</v>
       </c>
       <c r="D81" s="42" t="s">
@@ -7226,7 +8569,7 @@
       <c r="B82" s="13">
         <v>1000720</v>
       </c>
-      <c r="C82" s="13">
+      <c r="C82" s="62">
         <v>1</v>
       </c>
       <c r="D82" s="42" t="s">
@@ -7254,7 +8597,7 @@
       <c r="B83" s="13">
         <v>1000721</v>
       </c>
-      <c r="C83" s="13">
+      <c r="C83" s="62">
         <v>3</v>
       </c>
       <c r="D83" s="42" t="s">
@@ -7282,7 +8625,7 @@
       <c r="B84" s="13">
         <v>1000722</v>
       </c>
-      <c r="C84" s="13">
+      <c r="C84" s="62">
         <v>1</v>
       </c>
       <c r="D84" s="42" t="s">
@@ -7310,7 +8653,7 @@
       <c r="B85" s="13">
         <v>1000723</v>
       </c>
-      <c r="C85" s="13">
+      <c r="C85" s="62">
         <v>1</v>
       </c>
       <c r="D85" s="41" t="s">
@@ -7338,7 +8681,7 @@
       <c r="B86" s="47">
         <v>1000724</v>
       </c>
-      <c r="C86" s="13">
+      <c r="C86" s="62">
         <v>1</v>
       </c>
       <c r="D86" s="47" t="s">
@@ -7366,7 +8709,7 @@
       <c r="B87" s="47">
         <v>1000725</v>
       </c>
-      <c r="C87" s="13">
+      <c r="C87" s="62">
         <v>88</v>
       </c>
       <c r="D87" s="47" t="s">
@@ -7394,7 +8737,7 @@
       <c r="B88" s="47">
         <v>1000726</v>
       </c>
-      <c r="C88" s="13">
+      <c r="C88" s="62">
         <v>1</v>
       </c>
       <c r="D88" s="47" t="s">
@@ -7422,7 +8765,7 @@
       <c r="B89" s="47">
         <v>1000727</v>
       </c>
-      <c r="C89" s="13">
+      <c r="C89" s="62">
         <v>1</v>
       </c>
       <c r="D89" s="47" t="s">
@@ -7450,7 +8793,7 @@
       <c r="B90" s="47">
         <v>1000728</v>
       </c>
-      <c r="C90" s="13">
+      <c r="C90" s="62">
         <v>1</v>
       </c>
       <c r="D90" s="47" t="s">
@@ -7478,7 +8821,7 @@
       <c r="B91" s="47">
         <v>1000729</v>
       </c>
-      <c r="C91" s="13">
+      <c r="C91" s="62">
         <v>3</v>
       </c>
       <c r="D91" s="47" t="s">
@@ -7506,7 +8849,7 @@
       <c r="B92" s="47">
         <v>1000730</v>
       </c>
-      <c r="C92" s="13">
+      <c r="C92" s="62">
         <v>1</v>
       </c>
       <c r="D92" s="47" t="s">
@@ -7534,7 +8877,7 @@
       <c r="B93" s="47">
         <v>1000731</v>
       </c>
-      <c r="C93" s="13">
+      <c r="C93" s="62">
         <v>1</v>
       </c>
       <c r="D93" s="47" t="s">
@@ -7562,7 +8905,7 @@
       <c r="B94" s="47">
         <v>1000732</v>
       </c>
-      <c r="C94" s="13">
+      <c r="C94" s="62">
         <v>8</v>
       </c>
       <c r="D94" s="47" t="s">
@@ -7590,7 +8933,7 @@
       <c r="B95" s="49">
         <v>1000734</v>
       </c>
-      <c r="C95" s="13">
+      <c r="C95" s="62">
         <v>30</v>
       </c>
       <c r="D95" s="41" t="s">
@@ -7618,7 +8961,7 @@
       <c r="B96" s="49">
         <v>1000735</v>
       </c>
-      <c r="C96" s="13">
+      <c r="C96" s="62">
         <v>10</v>
       </c>
       <c r="D96" s="41" t="s">
@@ -7646,7 +8989,7 @@
       <c r="B97" s="13">
         <v>1000737</v>
       </c>
-      <c r="C97" s="13">
+      <c r="C97" s="62">
         <v>10</v>
       </c>
       <c r="D97" s="41" t="s">
@@ -7677,7 +9020,7 @@
       <c r="B98" s="13">
         <v>1000737</v>
       </c>
-      <c r="C98" s="13">
+      <c r="C98" s="62">
         <v>48</v>
       </c>
       <c r="D98" s="41" t="s">
@@ -7708,7 +9051,7 @@
       <c r="B99" s="13">
         <v>1000737</v>
       </c>
-      <c r="C99" s="13">
+      <c r="C99" s="62">
         <v>198</v>
       </c>
       <c r="D99" s="41" t="s">
@@ -7739,7 +9082,7 @@
       <c r="B100" s="13">
         <v>1000737</v>
       </c>
-      <c r="C100" s="13">
+      <c r="C100" s="62">
         <v>500</v>
       </c>
       <c r="D100" s="41" t="s">
@@ -7770,7 +9113,7 @@
       <c r="B101" s="13">
         <v>1000737</v>
       </c>
-      <c r="C101" s="13">
+      <c r="C101" s="62">
         <v>1000</v>
       </c>
       <c r="D101" s="41" t="s">
@@ -7801,7 +9144,7 @@
       <c r="B102" s="13">
         <v>1000737</v>
       </c>
-      <c r="C102" s="13">
+      <c r="C102" s="62">
         <v>2000</v>
       </c>
       <c r="D102" s="41" t="s">
@@ -7832,7 +9175,7 @@
       <c r="B103" s="13">
         <v>1000737</v>
       </c>
-      <c r="C103" s="13">
+      <c r="C103" s="62">
         <v>3000</v>
       </c>
       <c r="D103" s="41" t="s">
@@ -7863,7 +9206,7 @@
       <c r="B104" s="13">
         <v>1000737</v>
       </c>
-      <c r="C104" s="13">
+      <c r="C104" s="62">
         <v>5000</v>
       </c>
       <c r="D104" s="41" t="s">
@@ -7894,7 +9237,7 @@
       <c r="B105" s="13">
         <v>1000737</v>
       </c>
-      <c r="C105" s="13">
+      <c r="C105" s="62">
         <v>10000</v>
       </c>
       <c r="D105" s="41" t="s">
@@ -7925,7 +9268,7 @@
       <c r="B106" s="13">
         <v>1000738</v>
       </c>
-      <c r="C106" s="13">
+      <c r="C106" s="62">
         <v>100000</v>
       </c>
       <c r="D106" s="13" t="s">
@@ -7953,7 +9296,7 @@
       <c r="B107" s="13">
         <v>1000738</v>
       </c>
-      <c r="C107" s="13">
+      <c r="C107" s="62">
         <v>1000000</v>
       </c>
       <c r="D107" s="13" t="s">
@@ -7981,7 +9324,7 @@
       <c r="B108" s="13">
         <v>1000738</v>
       </c>
-      <c r="C108" s="13">
+      <c r="C108" s="62">
         <v>5000000</v>
       </c>
       <c r="D108" s="13" t="s">
@@ -8009,7 +9352,7 @@
       <c r="B109" s="13">
         <v>1000738</v>
       </c>
-      <c r="C109" s="13">
+      <c r="C109" s="62">
         <v>10000000</v>
       </c>
       <c r="D109" s="13" t="s">
@@ -8037,7 +9380,7 @@
       <c r="B110" s="13">
         <v>1000738</v>
       </c>
-      <c r="C110" s="13">
+      <c r="C110" s="62">
         <v>50000000</v>
       </c>
       <c r="D110" s="13" t="s">
@@ -8065,7 +9408,7 @@
       <c r="B111" s="13">
         <v>1000738</v>
       </c>
-      <c r="C111" s="3">
+      <c r="C111" s="60">
         <v>100000000</v>
       </c>
       <c r="D111" s="3" t="s">
@@ -8093,7 +9436,7 @@
       <c r="B112" s="13">
         <v>1000738</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C112" s="60">
         <v>300000000</v>
       </c>
       <c r="D112" s="3" t="s">
@@ -8121,7 +9464,7 @@
       <c r="B113" s="13">
         <v>1000738</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C113" s="60">
         <v>500000000</v>
       </c>
       <c r="D113" s="3" t="s">
@@ -8149,7 +9492,7 @@
       <c r="B114" s="13">
         <v>1000738</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C114" s="60">
         <v>1000000000</v>
       </c>
       <c r="D114" s="3" t="s">
@@ -8177,7 +9520,7 @@
       <c r="B115" s="13">
         <v>1000738</v>
       </c>
-      <c r="C115" s="3">
+      <c r="C115" s="60">
         <v>2000000000</v>
       </c>
       <c r="D115" s="3" t="s">
@@ -8205,7 +9548,7 @@
       <c r="B116" s="13">
         <v>1000738</v>
       </c>
-      <c r="C116" s="3">
+      <c r="C116" s="60">
         <v>3000000000</v>
       </c>
       <c r="D116" s="3" t="s">
@@ -8233,7 +9576,7 @@
       <c r="B117" s="13">
         <v>1000738</v>
       </c>
-      <c r="C117" s="3">
+      <c r="C117" s="60">
         <v>5000000000</v>
       </c>
       <c r="D117" s="3" t="s">
@@ -8261,7 +9604,7 @@
       <c r="B118" s="3">
         <v>1000737</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C118" s="60">
         <v>20000</v>
       </c>
       <c r="D118" s="42" t="s">
@@ -8292,7 +9635,7 @@
       <c r="B119" s="3">
         <v>1000737</v>
       </c>
-      <c r="C119" s="3">
+      <c r="C119" s="60">
         <v>30000</v>
       </c>
       <c r="D119" s="42" t="s">
@@ -8323,7 +9666,7 @@
       <c r="B120" s="3">
         <v>1000737</v>
       </c>
-      <c r="C120" s="3">
+      <c r="C120" s="60">
         <v>50000</v>
       </c>
       <c r="D120" s="42" t="s">
@@ -8354,7 +9697,7 @@
       <c r="B121" s="3">
         <v>1000739</v>
       </c>
-      <c r="C121" s="3">
+      <c r="C121" s="60">
         <v>8</v>
       </c>
       <c r="D121" s="42" t="s">
@@ -8380,7 +9723,7 @@
       <c r="B122" s="3">
         <v>1000740</v>
       </c>
-      <c r="C122" s="3">
+      <c r="C122" s="60">
         <v>1</v>
       </c>
       <c r="D122" s="3" t="s">
@@ -8406,7 +9749,7 @@
       <c r="B123" s="3">
         <v>1000741</v>
       </c>
-      <c r="C123" s="3">
+      <c r="C123" s="60">
         <v>10</v>
       </c>
       <c r="D123" s="42" t="s">
@@ -8434,7 +9777,7 @@
       <c r="B124" s="3">
         <v>1000741</v>
       </c>
-      <c r="C124" s="3">
+      <c r="C124" s="60">
         <v>20</v>
       </c>
       <c r="D124" s="42" t="s">
@@ -8462,7 +9805,7 @@
       <c r="B125" s="3">
         <v>1000741</v>
       </c>
-      <c r="C125" s="3">
+      <c r="C125" s="60">
         <v>50</v>
       </c>
       <c r="D125" s="42" t="s">
@@ -8490,7 +9833,7 @@
       <c r="B126" s="3">
         <v>1000741</v>
       </c>
-      <c r="C126" s="3">
+      <c r="C126" s="60">
         <v>100</v>
       </c>
       <c r="D126" s="42" t="s">
@@ -8518,7 +9861,7 @@
       <c r="B127" s="3">
         <v>1000742</v>
       </c>
-      <c r="C127" s="3">
+      <c r="C127" s="60">
         <v>10</v>
       </c>
       <c r="D127" s="42" t="s">
@@ -8546,7 +9889,7 @@
       <c r="B128" s="3">
         <v>1000742</v>
       </c>
-      <c r="C128" s="3">
+      <c r="C128" s="60">
         <v>20</v>
       </c>
       <c r="D128" s="42" t="s">
@@ -8574,7 +9917,7 @@
       <c r="B129" s="3">
         <v>1000743</v>
       </c>
-      <c r="C129" s="3">
+      <c r="C129" s="60">
         <v>1</v>
       </c>
       <c r="D129" s="42" t="s">
@@ -8602,7 +9945,7 @@
       <c r="B130" s="13">
         <v>1000744</v>
       </c>
-      <c r="C130" s="3">
+      <c r="C130" s="60">
         <v>8</v>
       </c>
       <c r="D130" s="41" t="s">
@@ -8628,7 +9971,7 @@
       <c r="B131" s="13">
         <v>1000745</v>
       </c>
-      <c r="C131" s="3">
+      <c r="C131" s="60">
         <v>1</v>
       </c>
       <c r="D131" s="41" t="s">
@@ -8654,7 +9997,7 @@
       <c r="B132" s="13">
         <v>1000746</v>
       </c>
-      <c r="C132" s="3">
+      <c r="C132" s="60">
         <v>20</v>
       </c>
       <c r="D132" s="41" t="s">
@@ -8682,7 +10025,7 @@
       <c r="B133" s="13">
         <v>1000747</v>
       </c>
-      <c r="C133" s="3">
+      <c r="C133" s="60">
         <v>20</v>
       </c>
       <c r="D133" s="41" t="s">
@@ -8710,7 +10053,7 @@
       <c r="B134" s="13">
         <v>1000748</v>
       </c>
-      <c r="C134" s="3">
+      <c r="C134" s="60">
         <v>20</v>
       </c>
       <c r="D134" s="41" t="s">
@@ -8738,7 +10081,7 @@
       <c r="B135" s="13">
         <v>1000749</v>
       </c>
-      <c r="C135" s="3">
+      <c r="C135" s="60">
         <v>20</v>
       </c>
       <c r="D135" s="41" t="s">
@@ -8766,7 +10109,7 @@
       <c r="B136" s="13">
         <v>1000750</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136" s="60">
         <v>20</v>
       </c>
       <c r="D136" s="41" t="s">
@@ -8794,7 +10137,7 @@
       <c r="B137" s="13">
         <v>1000751</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137" s="60">
         <v>1</v>
       </c>
       <c r="D137" s="41" t="s">
@@ -8822,7 +10165,7 @@
       <c r="B138" s="13">
         <v>1000752</v>
       </c>
-      <c r="C138" s="3">
+      <c r="C138" s="60">
         <v>1</v>
       </c>
       <c r="D138" s="41" t="s">
@@ -8850,7 +10193,7 @@
       <c r="B139" s="52">
         <v>1000753</v>
       </c>
-      <c r="C139" s="52">
+      <c r="C139" s="63">
         <v>3</v>
       </c>
       <c r="D139" s="54" t="s">
@@ -8878,7 +10221,7 @@
       <c r="B140" s="52">
         <v>1000754</v>
       </c>
-      <c r="C140" s="52">
+      <c r="C140" s="63">
         <v>3</v>
       </c>
       <c r="D140" s="54" t="s">
@@ -8906,7 +10249,7 @@
       <c r="B141" s="52">
         <v>1000755</v>
       </c>
-      <c r="C141" s="52">
+      <c r="C141" s="63">
         <v>3</v>
       </c>
       <c r="D141" s="54" t="s">
@@ -8934,7 +10277,7 @@
       <c r="B142" s="52">
         <v>1000756</v>
       </c>
-      <c r="C142" s="52">
+      <c r="C142" s="63">
         <v>3</v>
       </c>
       <c r="D142" s="54" t="s">
@@ -8962,7 +10305,7 @@
       <c r="B143" s="52">
         <v>1000757</v>
       </c>
-      <c r="C143" s="52">
+      <c r="C143" s="63">
         <v>3</v>
       </c>
       <c r="D143" s="54" t="s">
@@ -8990,7 +10333,7 @@
       <c r="B144" s="52">
         <v>1000758</v>
       </c>
-      <c r="C144" s="52">
+      <c r="C144" s="63">
         <v>3</v>
       </c>
       <c r="D144" s="54" t="s">
@@ -9018,7 +10361,7 @@
       <c r="B145" s="52">
         <v>1000759</v>
       </c>
-      <c r="C145" s="52">
+      <c r="C145" s="63">
         <v>3</v>
       </c>
       <c r="D145" s="54" t="s">
@@ -9046,7 +10389,7 @@
       <c r="B146" s="52">
         <v>1000760</v>
       </c>
-      <c r="C146" s="52">
+      <c r="C146" s="63">
         <v>3</v>
       </c>
       <c r="D146" s="54" t="s">
@@ -9074,7 +10417,7 @@
       <c r="B147" s="52">
         <v>1000761</v>
       </c>
-      <c r="C147" s="52">
+      <c r="C147" s="63">
         <v>3</v>
       </c>
       <c r="D147" s="54" t="s">
@@ -9102,7 +10445,7 @@
       <c r="B148" s="52">
         <v>1000762</v>
       </c>
-      <c r="C148" s="52">
+      <c r="C148" s="63">
         <v>3</v>
       </c>
       <c r="D148" s="54" t="s">
@@ -9130,7 +10473,7 @@
       <c r="B149" s="52">
         <v>1000763</v>
       </c>
-      <c r="C149" s="52">
+      <c r="C149" s="63">
         <v>3</v>
       </c>
       <c r="D149" s="54" t="s">
@@ -9158,7 +10501,7 @@
       <c r="B150" s="52">
         <v>1000764</v>
       </c>
-      <c r="C150" s="52">
+      <c r="C150" s="63">
         <v>3</v>
       </c>
       <c r="D150" s="54" t="s">
@@ -9186,7 +10529,7 @@
       <c r="B151" s="52">
         <v>1000765</v>
       </c>
-      <c r="C151" s="52">
+      <c r="C151" s="63">
         <v>3</v>
       </c>
       <c r="D151" s="54" t="s">
@@ -9214,7 +10557,7 @@
       <c r="B152" s="52">
         <v>1000766</v>
       </c>
-      <c r="C152" s="52">
+      <c r="C152" s="63">
         <v>3</v>
       </c>
       <c r="D152" s="54" t="s">
@@ -9242,7 +10585,7 @@
       <c r="B153" s="52">
         <v>1000767</v>
       </c>
-      <c r="C153" s="52">
+      <c r="C153" s="63">
         <v>3</v>
       </c>
       <c r="D153" s="54" t="s">
@@ -9270,7 +10613,7 @@
       <c r="B154" s="52">
         <v>1000768</v>
       </c>
-      <c r="C154" s="52">
+      <c r="C154" s="63">
         <v>3</v>
       </c>
       <c r="D154" s="54" t="s">
@@ -9298,7 +10641,7 @@
       <c r="B155" s="52">
         <v>1000769</v>
       </c>
-      <c r="C155" s="52">
+      <c r="C155" s="63">
         <v>3</v>
       </c>
       <c r="D155" s="54" t="s">
@@ -9326,7 +10669,7 @@
       <c r="B156" s="52">
         <v>1000770</v>
       </c>
-      <c r="C156" s="52">
+      <c r="C156" s="63">
         <v>3</v>
       </c>
       <c r="D156" s="54" t="s">
@@ -9342,7 +10685,7 @@
         <v>406</v>
       </c>
       <c r="I156" s="54" t="s">
-        <v>408</v>
+        <v>623</v>
       </c>
       <c r="J156" s="54"/>
       <c r="K156" s="54"/>
@@ -9354,7 +10697,7 @@
       <c r="B157" s="52">
         <v>1000771</v>
       </c>
-      <c r="C157" s="52">
+      <c r="C157" s="63">
         <v>3</v>
       </c>
       <c r="D157" s="54" t="s">
@@ -9382,7 +10725,7 @@
       <c r="B158" s="52">
         <v>1000771</v>
       </c>
-      <c r="C158" s="52">
+      <c r="C158" s="63">
         <v>10</v>
       </c>
       <c r="D158" s="54" t="s">
@@ -9410,7 +10753,7 @@
       <c r="B159" s="52">
         <v>1000771</v>
       </c>
-      <c r="C159" s="52">
+      <c r="C159" s="63">
         <v>20</v>
       </c>
       <c r="D159" s="54" t="s">
@@ -9438,7 +10781,7 @@
       <c r="B160" s="52">
         <v>1000771</v>
       </c>
-      <c r="C160" s="52">
+      <c r="C160" s="63">
         <v>30</v>
       </c>
       <c r="D160" s="54" t="s">
@@ -9466,7 +10809,7 @@
       <c r="B161" s="52">
         <v>1000772</v>
       </c>
-      <c r="C161" s="52">
+      <c r="C161" s="63">
         <v>10</v>
       </c>
       <c r="D161" s="54" t="s">
@@ -9494,7 +10837,7 @@
       <c r="B162" s="52">
         <v>1000772</v>
       </c>
-      <c r="C162" s="52">
+      <c r="C162" s="63">
         <v>20</v>
       </c>
       <c r="D162" s="54" t="s">
@@ -9522,7 +10865,7 @@
       <c r="B163" s="52">
         <v>1000773</v>
       </c>
-      <c r="C163" s="52">
+      <c r="C163" s="63">
         <v>18</v>
       </c>
       <c r="D163" s="54" t="s">
@@ -9550,7 +10893,7 @@
       <c r="B164" s="52">
         <v>1000773</v>
       </c>
-      <c r="C164" s="52">
+      <c r="C164" s="63">
         <v>48</v>
       </c>
       <c r="D164" s="54" t="s">
@@ -9578,7 +10921,7 @@
       <c r="B165" s="52">
         <v>1000773</v>
       </c>
-      <c r="C165" s="52">
+      <c r="C165" s="63">
         <v>88</v>
       </c>
       <c r="D165" s="54" t="s">
@@ -9606,7 +10949,7 @@
       <c r="B166" s="52">
         <v>1000773</v>
       </c>
-      <c r="C166" s="52">
+      <c r="C166" s="63">
         <v>128</v>
       </c>
       <c r="D166" s="54" t="s">
@@ -9634,7 +10977,7 @@
       <c r="B167" s="52">
         <v>1000773</v>
       </c>
-      <c r="C167" s="52">
+      <c r="C167" s="63">
         <v>188</v>
       </c>
       <c r="D167" s="54" t="s">
@@ -9662,7 +11005,7 @@
       <c r="B168" s="52">
         <v>1000774</v>
       </c>
-      <c r="C168" s="52">
+      <c r="C168" s="63">
         <v>3</v>
       </c>
       <c r="D168" s="54" t="s">
@@ -9690,7 +11033,7 @@
       <c r="B169" s="3">
         <v>1000775</v>
       </c>
-      <c r="C169" s="3">
+      <c r="C169" s="60">
         <v>5000000</v>
       </c>
       <c r="D169" s="42" t="s">
@@ -9718,7 +11061,7 @@
       <c r="B170" s="3">
         <v>1000775</v>
       </c>
-      <c r="C170" s="3">
+      <c r="C170" s="60">
         <v>10000000</v>
       </c>
       <c r="D170" s="42" t="s">
@@ -9746,7 +11089,7 @@
       <c r="B171" s="3">
         <v>1000775</v>
       </c>
-      <c r="C171" s="3">
+      <c r="C171" s="60">
         <v>30000000</v>
       </c>
       <c r="D171" s="42" t="s">
@@ -9774,7 +11117,7 @@
       <c r="B172" s="3">
         <v>1000775</v>
       </c>
-      <c r="C172" s="3">
+      <c r="C172" s="60">
         <v>50000000</v>
       </c>
       <c r="D172" s="42" t="s">
@@ -9802,7 +11145,7 @@
       <c r="B173" s="3">
         <v>1000775</v>
       </c>
-      <c r="C173" s="3">
+      <c r="C173" s="60">
         <v>100000000</v>
       </c>
       <c r="D173" s="42" t="s">
@@ -9830,7 +11173,7 @@
       <c r="B174" s="3">
         <v>1000775</v>
       </c>
-      <c r="C174" s="3">
+      <c r="C174" s="60">
         <v>200000000</v>
       </c>
       <c r="D174" s="42" t="s">
@@ -9858,7 +11201,7 @@
       <c r="B175" s="3">
         <v>1000775</v>
       </c>
-      <c r="C175" s="3">
+      <c r="C175" s="60">
         <v>500000000</v>
       </c>
       <c r="D175" s="42" t="s">
@@ -9886,7 +11229,7 @@
       <c r="B176" s="3">
         <v>1000775</v>
       </c>
-      <c r="C176" s="3">
+      <c r="C176" s="60">
         <v>800000000</v>
       </c>
       <c r="D176" s="42" t="s">
@@ -9914,7 +11257,7 @@
       <c r="B177" s="3">
         <v>1000775</v>
       </c>
-      <c r="C177" s="3">
+      <c r="C177" s="60">
         <v>1000000000</v>
       </c>
       <c r="D177" s="42" t="s">
@@ -9942,7 +11285,7 @@
       <c r="B178" s="13">
         <v>1000776</v>
       </c>
-      <c r="C178" s="3">
+      <c r="C178" s="60">
         <v>1</v>
       </c>
       <c r="D178" s="3" t="s">
@@ -9969,7 +11312,7 @@
       <c r="B179" s="13">
         <v>1000777</v>
       </c>
-      <c r="C179" s="3">
+      <c r="C179" s="60">
         <v>1</v>
       </c>
       <c r="D179" s="42" t="s">
@@ -9996,7 +11339,7 @@
       <c r="B180" s="13">
         <v>1000778</v>
       </c>
-      <c r="C180" s="3">
+      <c r="C180" s="60">
         <v>1</v>
       </c>
       <c r="D180" s="42" t="s">
@@ -10023,7 +11366,7 @@
       <c r="B181" s="13">
         <v>1000779</v>
       </c>
-      <c r="C181" s="3">
+      <c r="C181" s="60">
         <v>1</v>
       </c>
       <c r="D181" s="42" t="s">
@@ -10052,7 +11395,7 @@
       <c r="B182" s="13">
         <v>1000780</v>
       </c>
-      <c r="C182" s="3">
+      <c r="C182" s="60">
         <v>1</v>
       </c>
       <c r="D182" s="42" t="s">
@@ -10081,7 +11424,7 @@
       <c r="B183" s="13">
         <v>1000781</v>
       </c>
-      <c r="C183" s="3">
+      <c r="C183" s="60">
         <v>1</v>
       </c>
       <c r="D183" s="42" t="s">
@@ -10110,7 +11453,7 @@
       <c r="B184" s="49">
         <v>1000782</v>
       </c>
-      <c r="C184" s="3">
+      <c r="C184" s="60">
         <v>1</v>
       </c>
       <c r="D184" s="42" t="s">
@@ -10136,7 +11479,7 @@
       <c r="B185" s="49">
         <v>1000783</v>
       </c>
-      <c r="C185" s="3">
+      <c r="C185" s="60">
         <v>1</v>
       </c>
       <c r="D185" s="42" t="s">
@@ -10162,7 +11505,7 @@
       <c r="B186" s="49">
         <v>1000783</v>
       </c>
-      <c r="C186" s="3">
+      <c r="C186" s="60">
         <v>5</v>
       </c>
       <c r="D186" s="42" t="s">
@@ -10188,7 +11531,7 @@
       <c r="B187" s="49">
         <v>1000783</v>
       </c>
-      <c r="C187" s="3">
+      <c r="C187" s="60">
         <v>10</v>
       </c>
       <c r="D187" s="42" t="s">
@@ -10204,7 +11547,1170 @@
         <v>511</v>
       </c>
       <c r="I187" s="42" t="s">
-        <v>513</v>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A188" s="3">
+        <v>187</v>
+      </c>
+      <c r="B188" s="3">
+        <v>30033</v>
+      </c>
+      <c r="C188" s="60">
+        <v>10000</v>
+      </c>
+      <c r="D188" s="56" t="s">
+        <v>545</v>
+      </c>
+      <c r="E188" s="3">
+        <v>1</v>
+      </c>
+      <c r="G188" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H188" s="42" t="s">
+        <v>580</v>
+      </c>
+      <c r="I188" s="42" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A189" s="3">
+        <v>188</v>
+      </c>
+      <c r="B189" s="3">
+        <v>30033</v>
+      </c>
+      <c r="C189" s="60">
+        <v>50000</v>
+      </c>
+      <c r="D189" s="56" t="s">
+        <v>546</v>
+      </c>
+      <c r="E189" s="3">
+        <v>2</v>
+      </c>
+      <c r="G189" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H189" s="42" t="s">
+        <v>581</v>
+      </c>
+      <c r="I189" s="42" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A190" s="3">
+        <v>189</v>
+      </c>
+      <c r="B190" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C190" s="60">
+        <v>100000</v>
+      </c>
+      <c r="D190" s="56" t="s">
+        <v>519</v>
+      </c>
+      <c r="E190" s="3">
+        <v>1</v>
+      </c>
+      <c r="G190" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H190" s="42" t="s">
+        <v>580</v>
+      </c>
+      <c r="I190" s="42" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A191" s="3">
+        <v>190</v>
+      </c>
+      <c r="B191" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C191" s="60">
+        <v>300000</v>
+      </c>
+      <c r="D191" s="56" t="s">
+        <v>520</v>
+      </c>
+      <c r="E191" s="3">
+        <v>2</v>
+      </c>
+      <c r="G191" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H191" s="42" t="s">
+        <v>580</v>
+      </c>
+      <c r="I191" s="42" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A192" s="3">
+        <v>191</v>
+      </c>
+      <c r="B192" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C192" s="60">
+        <v>500000</v>
+      </c>
+      <c r="D192" s="56" t="s">
+        <v>521</v>
+      </c>
+      <c r="E192" s="3">
+        <v>3</v>
+      </c>
+      <c r="G192" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H192" s="42" t="s">
+        <v>582</v>
+      </c>
+      <c r="I192" s="42" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A193" s="3">
+        <v>192</v>
+      </c>
+      <c r="B193" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C193" s="60">
+        <v>800000</v>
+      </c>
+      <c r="D193" s="56" t="s">
+        <v>522</v>
+      </c>
+      <c r="E193" s="3">
+        <v>4</v>
+      </c>
+      <c r="G193" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H193" s="42" t="s">
+        <v>583</v>
+      </c>
+      <c r="I193" s="42" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A194" s="3">
+        <v>193</v>
+      </c>
+      <c r="B194" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C194" s="60">
+        <v>1000000</v>
+      </c>
+      <c r="D194" s="56" t="s">
+        <v>523</v>
+      </c>
+      <c r="E194" s="3">
+        <v>5</v>
+      </c>
+      <c r="G194" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H194" s="42" t="s">
+        <v>584</v>
+      </c>
+      <c r="I194" s="42" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A195" s="3">
+        <v>194</v>
+      </c>
+      <c r="B195" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C195" s="60">
+        <v>2000000</v>
+      </c>
+      <c r="D195" s="56" t="s">
+        <v>524</v>
+      </c>
+      <c r="E195" s="3">
+        <v>6</v>
+      </c>
+      <c r="G195" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H195" s="42" t="s">
+        <v>585</v>
+      </c>
+      <c r="I195" s="42" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A196" s="3">
+        <v>195</v>
+      </c>
+      <c r="B196" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C196" s="60">
+        <v>3500000</v>
+      </c>
+      <c r="D196" s="56" t="s">
+        <v>525</v>
+      </c>
+      <c r="E196" s="3">
+        <v>7</v>
+      </c>
+      <c r="G196" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H196" s="42" t="s">
+        <v>586</v>
+      </c>
+      <c r="I196" s="42" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A197" s="3">
+        <v>196</v>
+      </c>
+      <c r="B197" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C197" s="60">
+        <v>9000000</v>
+      </c>
+      <c r="D197" s="56" t="s">
+        <v>526</v>
+      </c>
+      <c r="E197" s="3">
+        <v>8</v>
+      </c>
+      <c r="G197" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H197" s="42" t="s">
+        <v>587</v>
+      </c>
+      <c r="I197" s="42" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A198" s="3">
+        <v>197</v>
+      </c>
+      <c r="B198" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C198" s="60">
+        <v>18000000</v>
+      </c>
+      <c r="D198" s="56" t="s">
+        <v>527</v>
+      </c>
+      <c r="E198" s="3">
+        <v>9</v>
+      </c>
+      <c r="G198" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H198" s="42" t="s">
+        <v>588</v>
+      </c>
+      <c r="I198" s="42" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A199" s="3">
+        <v>198</v>
+      </c>
+      <c r="B199" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C199" s="60">
+        <v>30000000</v>
+      </c>
+      <c r="D199" s="56" t="s">
+        <v>528</v>
+      </c>
+      <c r="E199" s="3">
+        <v>10</v>
+      </c>
+      <c r="G199" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H199" s="42" t="s">
+        <v>589</v>
+      </c>
+      <c r="I199" s="42" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A200" s="3">
+        <v>199</v>
+      </c>
+      <c r="B200" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C200" s="60">
+        <v>50000000</v>
+      </c>
+      <c r="D200" s="56" t="s">
+        <v>529</v>
+      </c>
+      <c r="E200" s="3">
+        <v>11</v>
+      </c>
+      <c r="G200" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H200" s="42" t="s">
+        <v>590</v>
+      </c>
+      <c r="I200" s="42" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A201" s="3">
+        <v>200</v>
+      </c>
+      <c r="B201" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C201" s="60">
+        <v>90000000</v>
+      </c>
+      <c r="D201" s="56" t="s">
+        <v>530</v>
+      </c>
+      <c r="E201" s="3">
+        <v>12</v>
+      </c>
+      <c r="G201" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H201" s="42" t="s">
+        <v>591</v>
+      </c>
+      <c r="I201" s="42" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A202" s="3">
+        <v>201</v>
+      </c>
+      <c r="B202" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C202" s="60">
+        <v>150000000</v>
+      </c>
+      <c r="D202" s="56" t="s">
+        <v>531</v>
+      </c>
+      <c r="E202" s="3">
+        <v>13</v>
+      </c>
+      <c r="G202" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H202" s="42" t="s">
+        <v>592</v>
+      </c>
+      <c r="I202" s="42" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A203" s="3">
+        <v>202</v>
+      </c>
+      <c r="B203" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C203" s="60">
+        <v>250000000</v>
+      </c>
+      <c r="D203" s="56" t="s">
+        <v>532</v>
+      </c>
+      <c r="E203" s="3">
+        <v>14</v>
+      </c>
+      <c r="G203" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H203" s="42" t="s">
+        <v>593</v>
+      </c>
+      <c r="I203" s="42" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A204" s="3">
+        <v>203</v>
+      </c>
+      <c r="B204" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C204" s="60">
+        <v>450000000</v>
+      </c>
+      <c r="D204" s="56" t="s">
+        <v>533</v>
+      </c>
+      <c r="E204" s="3">
+        <v>15</v>
+      </c>
+      <c r="G204" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H204" s="42" t="s">
+        <v>594</v>
+      </c>
+      <c r="I204" s="42" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A205" s="3">
+        <v>204</v>
+      </c>
+      <c r="B205" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C205" s="60">
+        <v>750000000</v>
+      </c>
+      <c r="D205" s="56" t="s">
+        <v>534</v>
+      </c>
+      <c r="E205" s="3">
+        <v>16</v>
+      </c>
+      <c r="G205" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H205" s="42" t="s">
+        <v>595</v>
+      </c>
+      <c r="I205" s="42" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A206" s="3">
+        <v>205</v>
+      </c>
+      <c r="B206" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C206" s="60">
+        <v>1000000000</v>
+      </c>
+      <c r="D206" s="56" t="s">
+        <v>535</v>
+      </c>
+      <c r="E206" s="3">
+        <v>17</v>
+      </c>
+      <c r="G206" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H206" s="42" t="s">
+        <v>596</v>
+      </c>
+      <c r="I206" s="42" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A207" s="3">
+        <v>206</v>
+      </c>
+      <c r="B207" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C207" s="60">
+        <v>1500000000</v>
+      </c>
+      <c r="D207" s="56" t="s">
+        <v>536</v>
+      </c>
+      <c r="E207" s="3">
+        <v>18</v>
+      </c>
+      <c r="G207" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H207" s="42" t="s">
+        <v>597</v>
+      </c>
+      <c r="I207" s="42" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A208" s="3">
+        <v>207</v>
+      </c>
+      <c r="B208" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C208" s="60">
+        <v>3000000000</v>
+      </c>
+      <c r="D208" s="56" t="s">
+        <v>537</v>
+      </c>
+      <c r="E208" s="3">
+        <v>19</v>
+      </c>
+      <c r="G208" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H208" s="42" t="s">
+        <v>598</v>
+      </c>
+      <c r="I208" s="42" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A209" s="3">
+        <v>208</v>
+      </c>
+      <c r="B209" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C209" s="60">
+        <v>5000000000</v>
+      </c>
+      <c r="D209" s="56" t="s">
+        <v>538</v>
+      </c>
+      <c r="E209" s="3">
+        <v>20</v>
+      </c>
+      <c r="G209" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H209" s="42" t="s">
+        <v>599</v>
+      </c>
+      <c r="I209" s="42" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A210" s="3">
+        <v>209</v>
+      </c>
+      <c r="B210" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C210" s="60">
+        <v>10000000000</v>
+      </c>
+      <c r="D210" s="56" t="s">
+        <v>539</v>
+      </c>
+      <c r="E210" s="3">
+        <v>21</v>
+      </c>
+      <c r="G210" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H210" s="42" t="s">
+        <v>600</v>
+      </c>
+      <c r="I210" s="42" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A211" s="3">
+        <v>210</v>
+      </c>
+      <c r="B211" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C211" s="60">
+        <v>30000000000</v>
+      </c>
+      <c r="D211" s="56" t="s">
+        <v>540</v>
+      </c>
+      <c r="E211" s="3">
+        <v>22</v>
+      </c>
+      <c r="G211" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H211" s="42" t="s">
+        <v>601</v>
+      </c>
+      <c r="I211" s="42" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A212" s="3">
+        <v>211</v>
+      </c>
+      <c r="B212" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C212" s="60">
+        <v>60000000000</v>
+      </c>
+      <c r="D212" s="56" t="s">
+        <v>541</v>
+      </c>
+      <c r="E212" s="3">
+        <v>23</v>
+      </c>
+      <c r="G212" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H212" s="42" t="s">
+        <v>602</v>
+      </c>
+      <c r="I212" s="42" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A213" s="3">
+        <v>212</v>
+      </c>
+      <c r="B213" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C213" s="64" t="s">
+        <v>547</v>
+      </c>
+      <c r="D213" s="56" t="s">
+        <v>542</v>
+      </c>
+      <c r="E213" s="3">
+        <v>24</v>
+      </c>
+      <c r="G213" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H213" s="42" t="s">
+        <v>603</v>
+      </c>
+      <c r="I213" s="42" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A214" s="3">
+        <v>213</v>
+      </c>
+      <c r="B214" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C214" s="64" t="s">
+        <v>548</v>
+      </c>
+      <c r="D214" s="56" t="s">
+        <v>543</v>
+      </c>
+      <c r="E214" s="3">
+        <v>25</v>
+      </c>
+      <c r="G214" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H214" s="42" t="s">
+        <v>604</v>
+      </c>
+      <c r="I214" s="42" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A215" s="3">
+        <v>214</v>
+      </c>
+      <c r="B215" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C215" s="64" t="s">
+        <v>549</v>
+      </c>
+      <c r="D215" s="56" t="s">
+        <v>544</v>
+      </c>
+      <c r="E215" s="3">
+        <v>26</v>
+      </c>
+      <c r="G215" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H215" s="42" t="s">
+        <v>605</v>
+      </c>
+      <c r="I215" s="42" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A216" s="3">
+        <v>215</v>
+      </c>
+      <c r="B216" s="3">
+        <v>30035</v>
+      </c>
+      <c r="C216" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="D216" s="56" t="s">
+        <v>550</v>
+      </c>
+      <c r="E216" s="3">
+        <v>1</v>
+      </c>
+      <c r="F216" s="3">
+        <v>1</v>
+      </c>
+      <c r="G216" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H216" s="42" t="s">
+        <v>606</v>
+      </c>
+      <c r="I216" s="42" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A217" s="3">
+        <v>216</v>
+      </c>
+      <c r="B217" s="3">
+        <v>30035</v>
+      </c>
+      <c r="C217" s="64" t="s">
+        <v>566</v>
+      </c>
+      <c r="D217" s="56" t="s">
+        <v>551</v>
+      </c>
+      <c r="E217" s="3">
+        <v>2</v>
+      </c>
+      <c r="F217" s="3">
+        <v>1</v>
+      </c>
+      <c r="G217" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H217" s="42" t="s">
+        <v>607</v>
+      </c>
+      <c r="I217" s="42" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A218" s="3">
+        <v>217</v>
+      </c>
+      <c r="B218" s="3">
+        <v>30035</v>
+      </c>
+      <c r="C218" s="64" t="s">
+        <v>567</v>
+      </c>
+      <c r="D218" s="56" t="s">
+        <v>552</v>
+      </c>
+      <c r="E218" s="3">
+        <v>3</v>
+      </c>
+      <c r="F218" s="3">
+        <v>1</v>
+      </c>
+      <c r="G218" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H218" s="42" t="s">
+        <v>608</v>
+      </c>
+      <c r="I218" s="42" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A219" s="3">
+        <v>218</v>
+      </c>
+      <c r="B219" s="3">
+        <v>30035</v>
+      </c>
+      <c r="C219" s="64" t="s">
+        <v>568</v>
+      </c>
+      <c r="D219" s="56" t="s">
+        <v>553</v>
+      </c>
+      <c r="E219" s="3">
+        <v>4</v>
+      </c>
+      <c r="F219" s="3">
+        <v>1</v>
+      </c>
+      <c r="G219" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H219" s="42" t="s">
+        <v>609</v>
+      </c>
+      <c r="I219" s="42" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A220" s="3">
+        <v>219</v>
+      </c>
+      <c r="B220" s="3">
+        <v>30035</v>
+      </c>
+      <c r="C220" s="64" t="s">
+        <v>569</v>
+      </c>
+      <c r="D220" s="56" t="s">
+        <v>554</v>
+      </c>
+      <c r="E220" s="3">
+        <v>5</v>
+      </c>
+      <c r="F220" s="3">
+        <v>1</v>
+      </c>
+      <c r="G220" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H220" s="42" t="s">
+        <v>610</v>
+      </c>
+      <c r="I220" s="42" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A221" s="3">
+        <v>220</v>
+      </c>
+      <c r="B221" s="3">
+        <v>30035</v>
+      </c>
+      <c r="C221" s="64" t="s">
+        <v>570</v>
+      </c>
+      <c r="D221" s="56" t="s">
+        <v>555</v>
+      </c>
+      <c r="E221" s="3">
+        <v>6</v>
+      </c>
+      <c r="F221" s="3">
+        <v>1</v>
+      </c>
+      <c r="G221" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H221" s="42" t="s">
+        <v>611</v>
+      </c>
+      <c r="I221" s="42" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A222" s="3">
+        <v>221</v>
+      </c>
+      <c r="B222" s="3">
+        <v>30035</v>
+      </c>
+      <c r="C222" s="64" t="s">
+        <v>571</v>
+      </c>
+      <c r="D222" s="56" t="s">
+        <v>556</v>
+      </c>
+      <c r="E222" s="3">
+        <v>7</v>
+      </c>
+      <c r="F222" s="3">
+        <v>1</v>
+      </c>
+      <c r="G222" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H222" s="42" t="s">
+        <v>612</v>
+      </c>
+      <c r="I222" s="42" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A223" s="3">
+        <v>222</v>
+      </c>
+      <c r="B223" s="3">
+        <v>30035</v>
+      </c>
+      <c r="C223" s="64" t="s">
+        <v>572</v>
+      </c>
+      <c r="D223" s="56" t="s">
+        <v>557</v>
+      </c>
+      <c r="E223" s="3">
+        <v>8</v>
+      </c>
+      <c r="F223" s="3">
+        <v>1</v>
+      </c>
+      <c r="G223" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H223" s="42" t="s">
+        <v>613</v>
+      </c>
+      <c r="I223" s="42" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A224" s="3">
+        <v>223</v>
+      </c>
+      <c r="B224" s="3">
+        <v>30035</v>
+      </c>
+      <c r="C224" s="64" t="s">
+        <v>573</v>
+      </c>
+      <c r="D224" s="56" t="s">
+        <v>558</v>
+      </c>
+      <c r="E224" s="3">
+        <v>9</v>
+      </c>
+      <c r="F224" s="3">
+        <v>1</v>
+      </c>
+      <c r="G224" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H224" s="42" t="s">
+        <v>614</v>
+      </c>
+      <c r="I224" s="42" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A225" s="3">
+        <v>224</v>
+      </c>
+      <c r="B225" s="3">
+        <v>30035</v>
+      </c>
+      <c r="C225" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="D225" s="56" t="s">
+        <v>559</v>
+      </c>
+      <c r="E225" s="3">
+        <v>10</v>
+      </c>
+      <c r="F225" s="3">
+        <v>1</v>
+      </c>
+      <c r="G225" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H225" s="42" t="s">
+        <v>615</v>
+      </c>
+      <c r="I225" s="42" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A226" s="3">
+        <v>225</v>
+      </c>
+      <c r="B226" s="3">
+        <v>30035</v>
+      </c>
+      <c r="C226" s="64" t="s">
+        <v>575</v>
+      </c>
+      <c r="D226" s="56" t="s">
+        <v>560</v>
+      </c>
+      <c r="E226" s="3">
+        <v>11</v>
+      </c>
+      <c r="F226" s="3">
+        <v>1</v>
+      </c>
+      <c r="G226" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H226" s="42" t="s">
+        <v>616</v>
+      </c>
+      <c r="I226" s="42" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A227" s="3">
+        <v>226</v>
+      </c>
+      <c r="B227" s="3">
+        <v>30035</v>
+      </c>
+      <c r="C227" s="64" t="s">
+        <v>576</v>
+      </c>
+      <c r="D227" s="56" t="s">
+        <v>561</v>
+      </c>
+      <c r="E227" s="3">
+        <v>12</v>
+      </c>
+      <c r="F227" s="3">
+        <v>1</v>
+      </c>
+      <c r="G227" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H227" s="42" t="s">
+        <v>617</v>
+      </c>
+      <c r="I227" s="42" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A228" s="3">
+        <v>227</v>
+      </c>
+      <c r="B228" s="3">
+        <v>30035</v>
+      </c>
+      <c r="C228" s="64" t="s">
+        <v>577</v>
+      </c>
+      <c r="D228" s="56" t="s">
+        <v>562</v>
+      </c>
+      <c r="E228" s="3">
+        <v>13</v>
+      </c>
+      <c r="F228" s="3">
+        <v>1</v>
+      </c>
+      <c r="G228" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H228" s="42" t="s">
+        <v>618</v>
+      </c>
+      <c r="I228" s="42" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A229" s="3">
+        <v>228</v>
+      </c>
+      <c r="B229" s="3">
+        <v>30035</v>
+      </c>
+      <c r="C229" s="64" t="s">
+        <v>578</v>
+      </c>
+      <c r="D229" s="56" t="s">
+        <v>563</v>
+      </c>
+      <c r="E229" s="3">
+        <v>14</v>
+      </c>
+      <c r="F229" s="3">
+        <v>1</v>
+      </c>
+      <c r="G229" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H229" s="42" t="s">
+        <v>619</v>
+      </c>
+      <c r="I229" s="42" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A230" s="3">
+        <v>229</v>
+      </c>
+      <c r="B230" s="3">
+        <v>30035</v>
+      </c>
+      <c r="C230" s="64" t="s">
+        <v>579</v>
+      </c>
+      <c r="D230" s="56" t="s">
+        <v>564</v>
+      </c>
+      <c r="E230" s="3">
+        <v>15</v>
+      </c>
+      <c r="F230" s="3">
+        <v>1</v>
+      </c>
+      <c r="G230" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H230" s="42" t="s">
+        <v>620</v>
+      </c>
+      <c r="I230" s="42" t="s">
+        <v>624</v>
       </c>
     </row>
   </sheetData>
